--- a/chapter3/Chapter3-1b.xlsx
+++ b/chapter3/Chapter3-1b.xlsx
@@ -18,6 +18,7 @@
     <sheet name="4" sheetId="13" r:id="rId4"/>
     <sheet name="5" sheetId="14" r:id="rId5"/>
     <sheet name="6" sheetId="15" r:id="rId6"/>
+    <sheet name="PatternObservation" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,8 +32,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zhou, Hong</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reference the previous worksheet. In this specific case, it is 1.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="65">
   <si>
     <t>Murder</t>
   </si>
@@ -233,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +397,27 @@
       <sz val="11"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -715,11 +761,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,6 +828,101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="1590675"/>
+          <a:ext cx="5095875" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>My observation:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1. C1 has the least averages for all four attributes (Murder, Assault, Urban population, and Rape)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. From C1, C2, C3 and C4, the crime rates of Murder, Assault and Rape go up steadily.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3. Urban Pop does not seem to be as determinant as other attributes in this clustering process.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1087,19 +1231,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3068,11 +3212,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,19 +3231,19 @@
         <f ca="1">_xlfn.SHEET(A1)-1</f>
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="R1">
         <v>1</v>
       </c>
@@ -5661,6 +5805,7 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5684,19 +5829,19 @@
         <f ca="1">_xlfn.SHEET(A1)-1</f>
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="R1">
         <v>1</v>
       </c>
@@ -8281,19 +8426,19 @@
         <f ca="1">_xlfn.SHEET(A1)-1</f>
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="R1">
         <v>1</v>
       </c>
@@ -10878,19 +11023,19 @@
         <f ca="1">_xlfn.SHEET(A1)-1</f>
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="R1">
         <v>1</v>
       </c>
@@ -13475,19 +13620,19 @@
         <f ca="1">_xlfn.SHEET(A1)-1</f>
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="R1">
         <v>1</v>
       </c>
@@ -16050,4 +16195,1153 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGEIFS(B$2:B$51, $F$2:$F$51, $H3)</f>
+        <v>2.31</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:L3" si="0">AVERAGEIFS(C$2:C$51, $F$2:$F$51, $H3)</f>
+        <v>8.64</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>52.6</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I6" si="1">AVERAGEIFS(B$2:B$51, $F$2:$F$51, $H4)</f>
+        <v>3.0090909090909093</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J6" si="2">AVERAGEIFS(C$2:C$51, $F$2:$F$51, $H4)</f>
+        <v>57.090909090909093</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" si="3">AVERAGEIFS(D$2:D$51, $F$2:$F$51, $H4)</f>
+        <v>57.81818181818182</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="4">AVERAGEIFS(E$2:E$51, $F$2:$F$51, $H4)</f>
+        <v>15.454545454545455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>133.80000000000001</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>10.285714285714286</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>233.57142857142858</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>62.571428571428569</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>27.285714285714285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3">
+        <v>74</v>
+      </c>
+      <c r="E19" s="3">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>177</v>
+      </c>
+      <c r="D23" s="4">
+        <v>50</v>
+      </c>
+      <c r="E23" s="4">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>170</v>
+      </c>
+      <c r="D24" s="4">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4">
+        <v>37</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4">
+        <v>136</v>
+      </c>
+      <c r="D25" s="4">
+        <v>52</v>
+      </c>
+      <c r="E25" s="4">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4">
+        <v>159</v>
+      </c>
+      <c r="D26" s="4">
+        <v>61</v>
+      </c>
+      <c r="E26" s="4">
+        <v>19</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>138</v>
+      </c>
+      <c r="D27" s="4">
+        <v>82</v>
+      </c>
+      <c r="E27" s="4">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>155</v>
+      </c>
+      <c r="D28" s="4">
+        <v>87</v>
+      </c>
+      <c r="E28" s="4">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4">
+        <v>161</v>
+      </c>
+      <c r="D29" s="4">
+        <v>85</v>
+      </c>
+      <c r="E29" s="4">
+        <v>23</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>119</v>
+      </c>
+      <c r="D30" s="4">
+        <v>73</v>
+      </c>
+      <c r="E30" s="4">
+        <v>18</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>116</v>
+      </c>
+      <c r="D31" s="4">
+        <v>59</v>
+      </c>
+      <c r="E31" s="4">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4">
+        <v>103</v>
+      </c>
+      <c r="D32" s="4">
+        <v>58</v>
+      </c>
+      <c r="E32" s="4">
+        <v>29</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4">
+        <v>83</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4">
+        <v>96</v>
+      </c>
+      <c r="D34" s="4">
+        <v>58</v>
+      </c>
+      <c r="E34" s="4">
+        <v>27</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="4">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4">
+        <v>137</v>
+      </c>
+      <c r="D35" s="4">
+        <v>79</v>
+      </c>
+      <c r="E35" s="4">
+        <v>25</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="4">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4">
+        <v>100</v>
+      </c>
+      <c r="D36" s="4">
+        <v>58</v>
+      </c>
+      <c r="E36" s="4">
+        <v>16</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
+        <v>143</v>
+      </c>
+      <c r="D37" s="4">
+        <v>51</v>
+      </c>
+      <c r="E37" s="4">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>193</v>
+      </c>
+      <c r="D38">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>222</v>
+      </c>
+      <c r="D39">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>226</v>
+      </c>
+      <c r="D40">
+        <v>72</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>235</v>
+      </c>
+      <c r="D41">
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>198</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>259</v>
+      </c>
+      <c r="D43">
+        <v>74</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>218</v>
+      </c>
+      <c r="D44">
+        <v>79</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>260</v>
+      </c>
+      <c r="D45">
+        <v>63</v>
+      </c>
+      <c r="E45">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>251</v>
+      </c>
+      <c r="D46">
+        <v>68</v>
+      </c>
+      <c r="E46">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>209</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>239</v>
+      </c>
+      <c r="D48">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>229</v>
+      </c>
+      <c r="D49">
+        <v>64</v>
+      </c>
+      <c r="E49">
+        <v>32</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>321</v>
+      </c>
+      <c r="D50">
+        <v>45</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>210</v>
+      </c>
+      <c r="D51">
+        <v>46</v>
+      </c>
+      <c r="E51">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F52">
+    <sortCondition ref="F2:F52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>